--- a/Ajout-RC/ig/StructureDefinition-dmi-patient.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5786" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5015" uniqueCount="679">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-24T10:11:35+00:00</t>
+    <t>2026-02-24T10:44:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>FRANCE</t>
+    <t>France</t>
   </si>
   <si>
     <t>Description</t>
@@ -1564,135 +1564,6 @@
     <t>XTN</t>
   </si>
   <si>
-    <t>Patient.telecom.id</t>
-  </si>
-  <si>
-    <t>Patient.telecom.extension</t>
-  </si>
-  <si>
-    <t>Patient.telecom.extension:emailType</t>
-  </si>
-  <si>
-    <t>emailType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point-email-type}
-</t>
-  </si>
-  <si>
-    <t>Type of email | type de messagerie électronique</t>
-  </si>
-  <si>
-    <t>Extension on the ContactPoint datatype. This extension allows to specify the type of mail used to contact the person (MSSsanté|Apicrypt|OSM|Autre).</t>
-  </si>
-  <si>
-    <t>Patient.telecom.system</t>
-  </si>
-  <si>
-    <t>phone | fax | email | pager | url | sms | other</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_R200-CanalCommunication/</t>
-  </si>
-  <si>
-    <t>ContactPoint.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpt-2
-</t>
-  </si>
-  <si>
-    <t>./scheme</t>
-  </si>
-  <si>
-    <t>XTN.3</t>
-  </si>
-  <si>
-    <t>Patient.telecom.value</t>
-  </si>
-  <si>
-    <t>The actual contact point details</t>
-  </si>
-  <si>
-    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
-  </si>
-  <si>
-    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
-  </si>
-  <si>
-    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
-  </si>
-  <si>
-    <t>ContactPoint.value</t>
-  </si>
-  <si>
-    <t>./url</t>
-  </si>
-  <si>
-    <t>XTN.1 (or XTN.12)</t>
-  </si>
-  <si>
-    <t>Patient.telecom.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | mobile - purpose of this contact point</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for the contact point.</t>
-  </si>
-  <si>
-    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
-  </si>
-  <si>
-    <t>Use of contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.use</t>
-  </si>
-  <si>
-    <t>XTN.2 - but often indicated by field</t>
-  </si>
-  <si>
-    <t>Patient.telecom.rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>Specify preferred order of use (1 = highest)</t>
-  </si>
-  <si>
-    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
-  </si>
-  <si>
-    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
-  </si>
-  <si>
-    <t>ContactPoint.rank</t>
-  </si>
-  <si>
-    <t>Patient.telecom.period</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use.</t>
-  </si>
-  <si>
-    <t>ContactPoint.period</t>
-  </si>
-  <si>
     <t>Patient.gender</t>
   </si>
   <si>
@@ -1783,269 +1654,6 @@
   </si>
   <si>
     <t>May need to keep track of patient addresses for contacting, billing or reporting requirements and also to help with identification.</t>
-  </si>
-  <si>
-    <t>Patient.address.id</t>
-  </si>
-  <si>
-    <t>Patient.address.extension</t>
-  </si>
-  <si>
-    <t>Patient.address.extension:inseeCode</t>
-  </si>
-  <si>
-    <t>inseeCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address-insee-code}
-</t>
-  </si>
-  <si>
-    <t>Code COG de la ville</t>
-  </si>
-  <si>
-    <t>This extension adds the insee code (5 digits) to the address | Ajout du code insee (5 chiffres) à l'adresse postale</t>
-  </si>
-  <si>
-    <t>Patient.address.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | billing - purpose of this address</t>
-  </si>
-  <si>
-    <t>The purpose of this address.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Allows an appropriate address to be chosen from a list of many.</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>The use of an address.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Address.use</t>
-  </si>
-  <si>
-    <t>XAD.7</t>
-  </si>
-  <si>
-    <t>Patient.address.type</t>
-  </si>
-  <si>
-    <t>postal | physical | both</t>
-  </si>
-  <si>
-    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
-  </si>
-  <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
-  </si>
-  <si>
-    <t>both</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_R35-TypeVoie/</t>
-  </si>
-  <si>
-    <t>Address.type</t>
-  </si>
-  <si>
-    <t>XAD.18</t>
-  </si>
-  <si>
-    <t>Patient.address.text</t>
-  </si>
-  <si>
-    <t>Text representation of the address</t>
-  </si>
-  <si>
-    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
-  </si>
-  <si>
-    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
-  </si>
-  <si>
-    <t>137 Nowhere Street, Erewhon 9132</t>
-  </si>
-  <si>
-    <t>Address.text</t>
-  </si>
-  <si>
-    <t>XAD.1 + XAD.2 + XAD.3 + XAD.4 + XAD.5 + XAD.6</t>
-  </si>
-  <si>
-    <t>Patient.address.line</t>
-  </si>
-  <si>
-    <t>Street name, number, direction &amp; P.O. Box etc.</t>
-  </si>
-  <si>
-    <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
-  </si>
-  <si>
-    <t>137 Nowhere Street</t>
-  </si>
-  <si>
-    <t>Address.line</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = AL]</t>
-  </si>
-  <si>
-    <t>XAD.1 + XAD.2 (note: XAD.1 and XAD.2 have different meanings for a company address than for a person address)</t>
-  </si>
-  <si>
-    <t>Patient.address.city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Municpality
-</t>
-  </si>
-  <si>
-    <t>Les communes existantes sont définies ici : https://public.opendatasoft.com/explore/dataset/correspondance-code-insee-code-postal/table.</t>
-  </si>
-  <si>
-    <t>The name of the city, town, suburb, village or other community or delivery center.</t>
-  </si>
-  <si>
-    <t>Erewhon</t>
-  </si>
-  <si>
-    <t>Address.city</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CTY]</t>
-  </si>
-  <si>
-    <t>XAD.3</t>
-  </si>
-  <si>
-    <t>Patient.address.district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">County
-</t>
-  </si>
-  <si>
-    <t>District name (aka county)</t>
-  </si>
-  <si>
-    <t>The name of the administrative area (county).</t>
-  </si>
-  <si>
-    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
-  </si>
-  <si>
-    <t>Madison</t>
-  </si>
-  <si>
-    <t>Address.district</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CNT | CPA]</t>
-  </si>
-  <si>
-    <t>XAD.9</t>
-  </si>
-  <si>
-    <t>Patient.address.state</t>
-  </si>
-  <si>
-    <t>Province
-Territory</t>
-  </si>
-  <si>
-    <t>Sub-unit of country (abbreviations ok)</t>
-  </si>
-  <si>
-    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
-  </si>
-  <si>
-    <t>Address.state</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = STA]</t>
-  </si>
-  <si>
-    <t>XAD.4</t>
-  </si>
-  <si>
-    <t>Patient.address.postalCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zip
-</t>
-  </si>
-  <si>
-    <t>Postal code for area</t>
-  </si>
-  <si>
-    <t>A postal code designating a region defined by the postal service.</t>
-  </si>
-  <si>
-    <t>9132</t>
-  </si>
-  <si>
-    <t>Address.postalCode</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = ZIP]</t>
-  </si>
-  <si>
-    <t>XAD.5</t>
-  </si>
-  <si>
-    <t>Patient.address.country</t>
-  </si>
-  <si>
-    <t>Country (will be ISO 3166 3 letter code; code=FRA for France)</t>
-  </si>
-  <si>
-    <t>Country - a nation as commonly understood or generally accepted.</t>
-  </si>
-  <si>
-    <t>ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
-  </si>
-  <si>
-    <t>Address.country</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CNT]</t>
-  </si>
-  <si>
-    <t>XAD.6</t>
-  </si>
-  <si>
-    <t>Patient.address.period</t>
-  </si>
-  <si>
-    <t>Time period when address was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when address was/is in use.</t>
-  </si>
-  <si>
-    <t>Allows addresses to be placed in historical context.</t>
-  </si>
-  <si>
-    <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
-  &lt;start value="2010-03-23"/&gt;
-  &lt;end value="2010-07-01"/&gt;
-&lt;/valuePeriod&gt;</t>
-  </si>
-  <si>
-    <t>Address.period</t>
-  </si>
-  <si>
-    <t>XAD.12 / XAD.13 + XAD.14</t>
   </si>
   <si>
     <t>Patient.maritalStatus</t>
@@ -2842,7 +2450,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO155"/>
+  <dimension ref="A1:AO134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2870,13 +2478,13 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.08984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.54296875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="64.48046875" customWidth="true" bestFit="true"/>
@@ -2889,7 +2497,7 @@
     <col min="37" max="37" width="134.453125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="34.98828125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="92.07421875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="48.16015625" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="34.35546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -14412,19 +14020,23 @@
         <v>79</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>102</v>
+        <v>492</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
+        <v>493</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="P99" t="s" s="2">
         <v>79</v>
       </c>
@@ -14448,13 +14060,13 @@
         <v>79</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>79</v>
+        <v>496</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>79</v>
+        <v>497</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>79</v>
@@ -14472,7 +14084,7 @@
         <v>79</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>104</v>
+        <v>491</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>77</v>
@@ -14484,19 +14096,19 @@
         <v>79</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>105</v>
+        <v>498</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>79</v>
+        <v>499</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>79</v>
+        <v>500</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>79</v>
@@ -14504,21 +14116,21 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>79</v>
@@ -14527,21 +14139,23 @@
         <v>79</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>108</v>
+        <v>502</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>109</v>
+        <v>503</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>110</v>
+        <v>504</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O100" s="2"/>
+        <v>505</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>506</v>
+      </c>
       <c r="P100" t="s" s="2">
         <v>79</v>
       </c>
@@ -14577,58 +14191,56 @@
         <v>79</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AC100" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AD100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>115</v>
+        <v>501</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>105</v>
+        <v>507</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>79</v>
+        <v>508</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>79</v>
+        <v>509</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>79</v>
+        <v>510</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="C101" t="s" s="2">
-        <v>494</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
         <v>79</v>
       </c>
@@ -14643,22 +14255,26 @@
         <v>79</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
+        <v>514</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>516</v>
+      </c>
       <c r="P101" t="s" s="2">
         <v>79</v>
       </c>
@@ -14706,31 +14322,31 @@
         <v>79</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>115</v>
+        <v>511</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>79</v>
+        <v>517</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>79</v>
+        <v>518</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>79</v>
@@ -14738,10 +14354,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14749,10 +14365,10 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>79</v>
@@ -14761,19 +14377,23 @@
         <v>79</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>499</v>
+        <v>234</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>520</v>
+      </c>
       <c r="P102" t="s" s="2">
         <v>79</v>
       </c>
@@ -14797,11 +14417,13 @@
         <v>79</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="Y102" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z102" t="s" s="2">
-        <v>501</v>
+        <v>79</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>79</v>
@@ -14819,22 +14441,22 @@
         <v>79</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>503</v>
+        <v>200</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>504</v>
+        <v>238</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>79</v>
@@ -14843,7 +14465,7 @@
         <v>79</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>505</v>
+        <v>239</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>79</v>
@@ -14851,10 +14473,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14862,7 +14484,7 @@
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>87</v>
@@ -14874,22 +14496,20 @@
         <v>79</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>101</v>
+        <v>277</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>509</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>79</v>
@@ -14914,13 +14534,11 @@
         <v>79</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="Y103" s="2"/>
       <c r="Z103" t="s" s="2">
-        <v>79</v>
+        <v>525</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>79</v>
@@ -14938,7 +14556,7 @@
         <v>79</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>77</v>
@@ -14953,16 +14571,16 @@
         <v>99</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>79</v>
+        <v>527</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>79</v>
@@ -14970,10 +14588,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14990,25 +14608,25 @@
         <v>79</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>167</v>
+        <v>530</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>79</v>
@@ -15033,13 +14651,13 @@
         <v>79</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>270</v>
+        <v>79</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>519</v>
+        <v>79</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>520</v>
+        <v>79</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>79</v>
@@ -15057,7 +14675,7 @@
         <v>79</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>77</v>
@@ -15072,16 +14690,16 @@
         <v>99</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>413</v>
+        <v>535</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>79</v>
@@ -15089,10 +14707,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15103,7 +14721,7 @@
         <v>77</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>79</v>
@@ -15112,21 +14730,23 @@
         <v>79</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="O105" s="2"/>
+        <v>541</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>542</v>
+      </c>
       <c r="P105" t="s" s="2">
         <v>79</v>
       </c>
@@ -15174,13 +14794,13 @@
         <v>79</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>79</v>
@@ -15189,16 +14809,16 @@
         <v>99</v>
       </c>
       <c r="AK105" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AL105" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AL105" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AM105" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>105</v>
+        <v>544</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>79</v>
@@ -15206,10 +14826,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>529</v>
+        <v>545</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>529</v>
+        <v>545</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15220,7 +14840,7 @@
         <v>77</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>79</v>
@@ -15229,19 +14849,23 @@
         <v>79</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>309</v>
+        <v>546</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
+        <v>548</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>550</v>
+      </c>
       <c r="P106" t="s" s="2">
         <v>79</v>
       </c>
@@ -15289,31 +14913,31 @@
         <v>79</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>99</v>
+        <v>551</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>462</v>
+        <v>552</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>79</v>
@@ -15321,10 +14945,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>533</v>
+        <v>553</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>533</v>
+        <v>553</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15344,23 +14968,19 @@
         <v>79</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>534</v>
+        <v>102</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>537</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>79</v>
       </c>
@@ -15384,13 +15004,13 @@
         <v>79</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>270</v>
+        <v>79</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>538</v>
+        <v>79</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>539</v>
+        <v>79</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>79</v>
@@ -15408,7 +15028,7 @@
         <v>79</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>533</v>
+        <v>104</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>77</v>
@@ -15420,19 +15040,19 @@
         <v>79</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>540</v>
+        <v>105</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>541</v>
+        <v>79</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>542</v>
+        <v>79</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>79</v>
@@ -15440,10 +15060,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15454,7 +15074,7 @@
         <v>77</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>79</v>
@@ -15463,23 +15083,19 @@
         <v>79</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>544</v>
+        <v>108</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>545</v>
+        <v>192</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>548</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>79</v>
       </c>
@@ -15515,56 +15131,56 @@
         <v>79</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="AC108" s="2"/>
       <c r="AD108" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>543</v>
+        <v>115</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>549</v>
+        <v>79</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>550</v>
+        <v>79</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>551</v>
+        <v>79</v>
       </c>
       <c r="AO108" t="s" s="2">
-        <v>552</v>
+        <v>79</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="C109" s="2"/>
+        <v>554</v>
+      </c>
+      <c r="C109" t="s" s="2">
+        <v>556</v>
+      </c>
       <c r="D109" t="s" s="2">
         <v>79</v>
       </c>
@@ -15579,26 +15195,22 @@
         <v>79</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>558</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>79</v>
       </c>
@@ -15646,31 +15258,31 @@
         <v>79</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>553</v>
+        <v>115</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>559</v>
+        <v>79</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>560</v>
+        <v>79</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>79</v>
@@ -15678,12 +15290,14 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="C110" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="B110" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
         <v>79</v>
       </c>
@@ -15692,7 +15306,7 @@
         <v>77</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>79</v>
@@ -15704,20 +15318,16 @@
         <v>79</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>233</v>
+        <v>562</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>234</v>
+        <v>563</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>562</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
         <v>79</v>
       </c>
@@ -15765,7 +15375,7 @@
         <v>79</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>561</v>
+        <v>115</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>77</v>
@@ -15777,10 +15387,10 @@
         <v>200</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>79</v>
@@ -15789,7 +15399,7 @@
         <v>79</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>79</v>
@@ -15797,42 +15407,46 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>79</v>
+        <v>566</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>102</v>
+        <v>567</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N111" s="2"/>
-      <c r="O111" s="2"/>
+        <v>568</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="P111" t="s" s="2">
         <v>79</v>
       </c>
@@ -15880,22 +15494,22 @@
         <v>79</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>104</v>
+        <v>569</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>79</v>
@@ -15912,14 +15526,14 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -15938,18 +15552,18 @@
         <v>79</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>108</v>
+        <v>277</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>109</v>
+        <v>571</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O112" s="2"/>
+        <v>572</v>
+      </c>
+      <c r="N112" s="2"/>
+      <c r="O112" t="s" s="2">
+        <v>573</v>
+      </c>
       <c r="P112" t="s" s="2">
         <v>79</v>
       </c>
@@ -15973,23 +15587,21 @@
         <v>79</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>79</v>
+        <v>574</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>79</v>
+        <v>575</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB112" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="AC112" s="2"/>
       <c r="AD112" t="s" s="2">
         <v>79</v>
       </c>
@@ -15997,7 +15609,7 @@
         <v>114</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>115</v>
+        <v>570</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>77</v>
@@ -16009,19 +15621,19 @@
         <v>79</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK112" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AL112" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AL112" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AM112" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>79</v>
+        <v>578</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>79</v>
@@ -16029,13 +15641,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>79</v>
@@ -16057,16 +15669,18 @@
         <v>79</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>567</v>
+        <v>277</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="N113" s="2"/>
-      <c r="O113" s="2"/>
+      <c r="O113" t="s" s="2">
+        <v>573</v>
+      </c>
       <c r="P113" t="s" s="2">
         <v>79</v>
       </c>
@@ -16090,13 +15704,11 @@
         <v>79</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="Y113" s="2"/>
       <c r="Z113" t="s" s="2">
-        <v>79</v>
+        <v>582</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>79</v>
@@ -16114,7 +15726,7 @@
         <v>79</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>115</v>
+        <v>570</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>77</v>
@@ -16126,19 +15738,19 @@
         <v>79</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>79</v>
+        <v>577</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>79</v>
+        <v>578</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>79</v>
@@ -16146,12 +15758,14 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="C114" s="2"/>
+      <c r="C114" t="s" s="2">
+        <v>584</v>
+      </c>
       <c r="D114" t="s" s="2">
         <v>79</v>
       </c>
@@ -16166,25 +15780,23 @@
         <v>79</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>167</v>
+        <v>277</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="M114" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="N114" t="s" s="2">
+      <c r="N114" s="2"/>
+      <c r="O114" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>79</v>
@@ -16197,7 +15809,7 @@
         <v>79</v>
       </c>
       <c r="T114" t="s" s="2">
-        <v>575</v>
+        <v>79</v>
       </c>
       <c r="U114" t="s" s="2">
         <v>79</v>
@@ -16209,13 +15821,11 @@
         <v>79</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>576</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="Y114" s="2"/>
       <c r="Z114" t="s" s="2">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>79</v>
@@ -16233,13 +15843,13 @@
         <v>79</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>79</v>
@@ -16248,16 +15858,16 @@
         <v>99</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>413</v>
+        <v>577</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>79</v>
@@ -16265,10 +15875,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16288,21 +15898,23 @@
         <v>79</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>167</v>
+        <v>386</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="O115" s="2"/>
+        <v>590</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>591</v>
+      </c>
       <c r="P115" t="s" s="2">
         <v>79</v>
       </c>
@@ -16314,7 +15926,7 @@
         <v>79</v>
       </c>
       <c r="T115" t="s" s="2">
-        <v>584</v>
+        <v>79</v>
       </c>
       <c r="U115" t="s" s="2">
         <v>79</v>
@@ -16326,11 +15938,13 @@
         <v>79</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="Y115" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z115" t="s" s="2">
-        <v>585</v>
+        <v>79</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>79</v>
@@ -16348,7 +15962,7 @@
         <v>79</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>77</v>
@@ -16357,13 +15971,13 @@
         <v>87</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>413</v>
+        <v>592</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>79</v>
@@ -16372,7 +15986,7 @@
         <v>79</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>79</v>
@@ -16380,10 +15994,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16394,7 +16008,7 @@
         <v>77</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>79</v>
@@ -16403,22 +16017,22 @@
         <v>79</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>101</v>
+        <v>483</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>589</v>
+        <v>484</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>590</v>
+        <v>485</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>420</v>
+        <v>487</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>79</v>
@@ -16431,7 +16045,7 @@
         <v>79</v>
       </c>
       <c r="T116" t="s" s="2">
-        <v>592</v>
+        <v>79</v>
       </c>
       <c r="U116" t="s" s="2">
         <v>79</v>
@@ -16467,22 +16081,22 @@
         <v>79</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>99</v>
+        <v>488</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>422</v>
+        <v>489</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>79</v>
@@ -16491,7 +16105,7 @@
         <v>79</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>594</v>
+        <v>490</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>79</v>
@@ -16499,10 +16113,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16513,7 +16127,7 @@
         <v>77</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>79</v>
@@ -16522,19 +16136,21 @@
         <v>79</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>101</v>
+        <v>597</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="N117" s="2"/>
-      <c r="O117" s="2"/>
+      <c r="O117" t="s" s="2">
+        <v>600</v>
+      </c>
       <c r="P117" t="s" s="2">
         <v>79</v>
       </c>
@@ -16546,7 +16162,7 @@
         <v>79</v>
       </c>
       <c r="T117" t="s" s="2">
-        <v>598</v>
+        <v>79</v>
       </c>
       <c r="U117" t="s" s="2">
         <v>79</v>
@@ -16582,13 +16198,13 @@
         <v>79</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI117" t="s" s="2">
         <v>79</v>
@@ -16597,16 +16213,16 @@
         <v>99</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>79</v>
@@ -16614,14 +16230,14 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>603</v>
+        <v>79</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -16637,19 +16253,21 @@
         <v>79</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="L118" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M118" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="M118" t="s" s="2">
+      <c r="N118" s="2"/>
+      <c r="O118" t="s" s="2">
         <v>605</v>
       </c>
-      <c r="N118" s="2"/>
-      <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
         <v>79</v>
       </c>
@@ -16661,7 +16279,7 @@
         <v>79</v>
       </c>
       <c r="T118" t="s" s="2">
-        <v>606</v>
+        <v>79</v>
       </c>
       <c r="U118" t="s" s="2">
         <v>79</v>
@@ -16673,13 +16291,13 @@
         <v>79</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>79</v>
+        <v>496</v>
       </c>
       <c r="Z118" t="s" s="2">
-        <v>79</v>
+        <v>497</v>
       </c>
       <c r="AA118" t="s" s="2">
         <v>79</v>
@@ -16697,7 +16315,7 @@
         <v>79</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>77</v>
@@ -16712,16 +16330,16 @@
         <v>99</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>608</v>
+        <v>498</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>79</v>
@@ -16729,14 +16347,14 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
-        <v>611</v>
+        <v>79</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
@@ -16752,21 +16370,21 @@
         <v>79</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>101</v>
+        <v>317</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="O119" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="N119" s="2"/>
+      <c r="O119" t="s" s="2">
+        <v>610</v>
+      </c>
       <c r="P119" t="s" s="2">
         <v>79</v>
       </c>
@@ -16778,7 +16396,7 @@
         <v>79</v>
       </c>
       <c r="T119" t="s" s="2">
-        <v>615</v>
+        <v>79</v>
       </c>
       <c r="U119" t="s" s="2">
         <v>79</v>
@@ -16814,7 +16432,7 @@
         <v>79</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>77</v>
@@ -16823,22 +16441,22 @@
         <v>87</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>79</v>
+        <v>611</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>79</v>
@@ -16846,14 +16464,14 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
-        <v>620</v>
+        <v>79</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
@@ -16869,16 +16487,16 @@
         <v>79</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>101</v>
+        <v>309</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -16929,7 +16547,7 @@
         <v>79</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>77</v>
@@ -16944,16 +16562,16 @@
         <v>99</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>625</v>
+        <v>79</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>79</v>
@@ -16961,21 +16579,21 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>627</v>
+        <v>79</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>79</v>
@@ -16984,19 +16602,23 @@
         <v>79</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>101</v>
+        <v>546</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="N121" s="2"/>
-      <c r="O121" s="2"/>
+        <v>620</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>622</v>
+      </c>
       <c r="P121" t="s" s="2">
         <v>79</v>
       </c>
@@ -17008,7 +16630,7 @@
         <v>79</v>
       </c>
       <c r="T121" t="s" s="2">
-        <v>630</v>
+        <v>79</v>
       </c>
       <c r="U121" t="s" s="2">
         <v>79</v>
@@ -17044,13 +16666,13 @@
         <v>79</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>79</v>
@@ -17059,16 +16681,16 @@
         <v>99</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>79</v>
+        <v>624</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>633</v>
+        <v>79</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>79</v>
@@ -17076,10 +16698,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17099,20 +16721,18 @@
         <v>79</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K122" t="s" s="2">
         <v>101</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>635</v>
+        <v>102</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>637</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N122" s="2"/>
       <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
         <v>79</v>
@@ -17161,7 +16781,7 @@
         <v>79</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>638</v>
+        <v>104</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>77</v>
@@ -17173,10 +16793,10 @@
         <v>79</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>639</v>
+        <v>105</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>79</v>
@@ -17185,7 +16805,7 @@
         <v>79</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>640</v>
+        <v>79</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>79</v>
@@ -17193,21 +16813,21 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>79</v>
@@ -17216,21 +16836,21 @@
         <v>79</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>309</v>
+        <v>108</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>642</v>
+        <v>109</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="N123" s="2"/>
-      <c r="O123" t="s" s="2">
-        <v>644</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
         <v>79</v>
       </c>
@@ -17242,7 +16862,7 @@
         <v>79</v>
       </c>
       <c r="T123" t="s" s="2">
-        <v>645</v>
+        <v>79</v>
       </c>
       <c r="U123" t="s" s="2">
         <v>79</v>
@@ -17278,22 +16898,22 @@
         <v>79</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>646</v>
+        <v>115</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>462</v>
+        <v>105</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>79</v>
@@ -17302,7 +16922,7 @@
         <v>79</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>647</v>
+        <v>79</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>79</v>
@@ -17310,43 +16930,45 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>648</v>
+        <v>627</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>648</v>
+        <v>627</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
-        <v>79</v>
+        <v>566</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>277</v>
+        <v>108</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>649</v>
+        <v>567</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="N124" s="2"/>
+        <v>568</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O124" t="s" s="2">
-        <v>651</v>
+        <v>243</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>79</v>
@@ -17371,11 +16993,13 @@
         <v>79</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="Y124" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y124" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z124" t="s" s="2">
-        <v>652</v>
+        <v>79</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>79</v>
@@ -17393,31 +17017,31 @@
         <v>79</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>648</v>
+        <v>569</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>653</v>
+        <v>190</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>654</v>
+        <v>79</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>655</v>
+        <v>79</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>79</v>
@@ -17425,10 +17049,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>656</v>
+        <v>628</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>656</v>
+        <v>628</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17436,7 +17060,7 @@
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>87</v>
@@ -17451,19 +17075,19 @@
         <v>79</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>657</v>
+        <v>277</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>658</v>
+        <v>629</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>659</v>
+        <v>630</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>660</v>
+        <v>631</v>
       </c>
       <c r="O125" t="s" s="2">
-        <v>661</v>
+        <v>632</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>79</v>
@@ -17488,13 +17112,13 @@
         <v>79</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Z125" t="s" s="2">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="AA125" t="s" s="2">
         <v>79</v>
@@ -17512,10 +17136,10 @@
         <v>79</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>656</v>
+        <v>628</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>87</v>
@@ -17527,16 +17151,16 @@
         <v>99</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>662</v>
+        <v>633</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>105</v>
+        <v>634</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>663</v>
+        <v>635</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>79</v>
@@ -17544,10 +17168,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>664</v>
+        <v>636</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>664</v>
+        <v>636</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17558,7 +17182,7 @@
         <v>77</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H126" t="s" s="2">
         <v>79</v>
@@ -17570,19 +17194,19 @@
         <v>79</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>665</v>
+        <v>377</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>666</v>
+        <v>637</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>667</v>
+        <v>638</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>668</v>
+        <v>639</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>669</v>
+        <v>640</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>79</v>
@@ -17631,13 +17255,13 @@
         <v>79</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>664</v>
+        <v>636</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>79</v>
@@ -17646,16 +17270,16 @@
         <v>99</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>670</v>
+        <v>641</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>105</v>
+        <v>642</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>671</v>
+        <v>643</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>79</v>
@@ -17663,14 +17287,14 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>672</v>
+        <v>644</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>672</v>
+        <v>644</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
-        <v>79</v>
+        <v>645</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
@@ -17689,20 +17313,18 @@
         <v>79</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>673</v>
+        <v>646</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>674</v>
+        <v>647</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>675</v>
+        <v>648</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="O127" t="s" s="2">
-        <v>677</v>
-      </c>
+        <v>649</v>
+      </c>
+      <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
         <v>79</v>
       </c>
@@ -17750,7 +17372,7 @@
         <v>79</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>672</v>
+        <v>644</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>77</v>
@@ -17762,10 +17384,10 @@
         <v>79</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>678</v>
+        <v>99</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>679</v>
+        <v>650</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>105</v>
@@ -17774,7 +17396,7 @@
         <v>79</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>79</v>
+        <v>651</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>79</v>
@@ -17782,10 +17404,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>680</v>
+        <v>652</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>680</v>
+        <v>652</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17805,19 +17427,23 @@
         <v>79</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>101</v>
+        <v>653</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>102</v>
+        <v>654</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N128" s="2"/>
-      <c r="O128" s="2"/>
+        <v>655</v>
+      </c>
+      <c r="N128" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="O128" t="s" s="2">
+        <v>657</v>
+      </c>
       <c r="P128" t="s" s="2">
         <v>79</v>
       </c>
@@ -17865,7 +17491,7 @@
         <v>79</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>104</v>
+        <v>652</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>77</v>
@@ -17877,13 +17503,13 @@
         <v>79</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>105</v>
+        <v>612</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>79</v>
+        <v>658</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>79</v>
@@ -17897,10 +17523,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>681</v>
+        <v>659</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>681</v>
+        <v>659</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17917,22 +17543,26 @@
         <v>79</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>108</v>
+        <v>546</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>192</v>
+        <v>660</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N129" s="2"/>
-      <c r="O129" s="2"/>
+        <v>661</v>
+      </c>
+      <c r="N129" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="O129" t="s" s="2">
+        <v>663</v>
+      </c>
       <c r="P129" t="s" s="2">
         <v>79</v>
       </c>
@@ -17968,17 +17598,19 @@
         <v>79</v>
       </c>
       <c r="AB129" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AC129" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC129" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD129" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>115</v>
+        <v>659</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>77</v>
@@ -17990,13 +17622,13 @@
         <v>79</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>79</v>
+        <v>664</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>79</v>
@@ -18010,14 +17642,12 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="C130" t="s" s="2">
-        <v>683</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
         <v>79</v>
       </c>
@@ -18038,13 +17668,13 @@
         <v>79</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>684</v>
+        <v>101</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>685</v>
+        <v>102</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>686</v>
+        <v>103</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -18095,22 +17725,22 @@
         <v>79</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="AL130" t="s" s="2">
         <v>79</v>
@@ -18127,23 +17757,21 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>687</v>
+        <v>666</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="C131" t="s" s="2">
-        <v>688</v>
-      </c>
+        <v>666</v>
+      </c>
+      <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G131" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H131" t="s" s="2">
         <v>79</v>
@@ -18155,15 +17783,17 @@
         <v>79</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>689</v>
+        <v>108</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>690</v>
+        <v>109</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="N131" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="N131" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O131" s="2"/>
       <c r="P131" t="s" s="2">
         <v>79</v>
@@ -18221,13 +17851,13 @@
         <v>78</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>116</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>79</v>
@@ -18244,14 +17874,14 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>692</v>
+        <v>667</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>692</v>
+        <v>667</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
-        <v>693</v>
+        <v>566</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" t="s" s="2">
@@ -18273,10 +17903,10 @@
         <v>108</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>694</v>
+        <v>567</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>695</v>
+        <v>568</v>
       </c>
       <c r="N132" t="s" s="2">
         <v>111</v>
@@ -18331,7 +17961,7 @@
         <v>79</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>696</v>
+        <v>569</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>77</v>
@@ -18363,10 +17993,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>697</v>
+        <v>668</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>697</v>
+        <v>668</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18374,10 +18004,10 @@
       </c>
       <c r="E133" s="2"/>
       <c r="F133" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G133" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H133" t="s" s="2">
         <v>79</v>
@@ -18386,21 +18016,21 @@
         <v>79</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>277</v>
+        <v>669</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>698</v>
+        <v>670</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>699</v>
-      </c>
-      <c r="N133" s="2"/>
-      <c r="O133" t="s" s="2">
-        <v>700</v>
-      </c>
+        <v>671</v>
+      </c>
+      <c r="N133" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
         <v>79</v>
       </c>
@@ -18424,35 +18054,37 @@
         <v>79</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>701</v>
+        <v>79</v>
       </c>
       <c r="Z133" t="s" s="2">
-        <v>702</v>
+        <v>79</v>
       </c>
       <c r="AA133" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB133" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="AC133" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC133" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD133" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>697</v>
+        <v>668</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH133" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI133" t="s" s="2">
         <v>79</v>
@@ -18461,7 +18093,7 @@
         <v>99</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>704</v>
+        <v>252</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>105</v>
@@ -18470,7 +18102,7 @@
         <v>79</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>705</v>
+        <v>673</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>79</v>
@@ -18478,20 +18110,18 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>706</v>
+        <v>674</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="C134" t="s" s="2">
-        <v>707</v>
-      </c>
+        <v>674</v>
+      </c>
+      <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G134" t="s" s="2">
         <v>87</v>
@@ -18503,21 +18133,19 @@
         <v>79</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>277</v>
+        <v>167</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>708</v>
+        <v>675</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>699</v>
+        <v>676</v>
       </c>
       <c r="N134" s="2"/>
-      <c r="O134" t="s" s="2">
-        <v>700</v>
-      </c>
+      <c r="O134" s="2"/>
       <c r="P134" t="s" s="2">
         <v>79</v>
       </c>
@@ -18541,11 +18169,13 @@
         <v>79</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="Y134" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="Y134" t="s" s="2">
+        <v>676</v>
+      </c>
       <c r="Z134" t="s" s="2">
-        <v>709</v>
+        <v>677</v>
       </c>
       <c r="AA134" t="s" s="2">
         <v>79</v>
@@ -18563,13 +18193,13 @@
         <v>79</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>697</v>
+        <v>674</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI134" t="s" s="2">
         <v>79</v>
@@ -18578,7 +18208,7 @@
         <v>99</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>704</v>
+        <v>678</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>105</v>
@@ -18587,2476 +18217,9 @@
         <v>79</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>705</v>
+        <v>79</v>
       </c>
       <c r="AO134" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="B135" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="C135" t="s" s="2">
-        <v>711</v>
-      </c>
-      <c r="D135" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E135" s="2"/>
-      <c r="F135" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G135" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H135" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I135" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J135" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K135" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>712</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>699</v>
-      </c>
-      <c r="N135" s="2"/>
-      <c r="O135" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="P135" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q135" s="2"/>
-      <c r="R135" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S135" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T135" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U135" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V135" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W135" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X135" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="Y135" s="2"/>
-      <c r="Z135" t="s" s="2">
-        <v>713</v>
-      </c>
-      <c r="AA135" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB135" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC135" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD135" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE135" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF135" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="AG135" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI135" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ135" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK135" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="AL135" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AM135" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN135" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="AO135" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="B136" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="C136" s="2"/>
-      <c r="D136" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E136" s="2"/>
-      <c r="F136" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G136" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H136" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I136" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J136" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K136" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="L136" t="s" s="2">
-        <v>715</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>716</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>717</v>
-      </c>
-      <c r="O136" t="s" s="2">
-        <v>718</v>
-      </c>
-      <c r="P136" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q136" s="2"/>
-      <c r="R136" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S136" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T136" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U136" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V136" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W136" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X136" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y136" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z136" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA136" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB136" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC136" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD136" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE136" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF136" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="AG136" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH136" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI136" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AJ136" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK136" t="s" s="2">
-        <v>719</v>
-      </c>
-      <c r="AL136" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM136" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN136" t="s" s="2">
-        <v>720</v>
-      </c>
-      <c r="AO136" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s" s="2">
-        <v>721</v>
-      </c>
-      <c r="B137" t="s" s="2">
-        <v>721</v>
-      </c>
-      <c r="C137" s="2"/>
-      <c r="D137" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E137" s="2"/>
-      <c r="F137" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H137" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I137" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J137" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K137" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="L137" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M137" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N137" t="s" s="2">
-        <v>722</v>
-      </c>
-      <c r="O137" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="P137" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q137" s="2"/>
-      <c r="R137" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S137" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T137" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U137" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V137" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W137" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X137" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y137" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z137" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA137" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB137" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC137" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD137" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE137" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF137" t="s" s="2">
-        <v>721</v>
-      </c>
-      <c r="AG137" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI137" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AJ137" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AK137" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AL137" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM137" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN137" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AO137" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s" s="2">
-        <v>723</v>
-      </c>
-      <c r="B138" t="s" s="2">
-        <v>723</v>
-      </c>
-      <c r="C138" s="2"/>
-      <c r="D138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E138" s="2"/>
-      <c r="F138" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G138" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K138" t="s" s="2">
-        <v>724</v>
-      </c>
-      <c r="L138" t="s" s="2">
-        <v>725</v>
-      </c>
-      <c r="M138" t="s" s="2">
-        <v>726</v>
-      </c>
-      <c r="N138" s="2"/>
-      <c r="O138" t="s" s="2">
-        <v>727</v>
-      </c>
-      <c r="P138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q138" s="2"/>
-      <c r="R138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF138" t="s" s="2">
-        <v>723</v>
-      </c>
-      <c r="AG138" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH138" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ138" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK138" t="s" s="2">
-        <v>728</v>
-      </c>
-      <c r="AL138" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AM138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN138" t="s" s="2">
-        <v>729</v>
-      </c>
-      <c r="AO138" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s" s="2">
-        <v>730</v>
-      </c>
-      <c r="B139" t="s" s="2">
-        <v>730</v>
-      </c>
-      <c r="C139" s="2"/>
-      <c r="D139" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E139" s="2"/>
-      <c r="F139" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G139" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H139" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I139" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J139" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K139" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>731</v>
-      </c>
-      <c r="N139" s="2"/>
-      <c r="O139" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="P139" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q139" s="2"/>
-      <c r="R139" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S139" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T139" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U139" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V139" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W139" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X139" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="Y139" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="Z139" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="AA139" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB139" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC139" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD139" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE139" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF139" t="s" s="2">
-        <v>730</v>
-      </c>
-      <c r="AG139" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH139" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI139" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ139" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK139" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AL139" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AM139" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN139" t="s" s="2">
-        <v>733</v>
-      </c>
-      <c r="AO139" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s" s="2">
-        <v>734</v>
-      </c>
-      <c r="B140" t="s" s="2">
-        <v>734</v>
-      </c>
-      <c r="C140" s="2"/>
-      <c r="D140" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E140" s="2"/>
-      <c r="F140" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G140" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H140" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I140" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J140" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K140" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>735</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>736</v>
-      </c>
-      <c r="N140" s="2"/>
-      <c r="O140" t="s" s="2">
-        <v>737</v>
-      </c>
-      <c r="P140" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q140" s="2"/>
-      <c r="R140" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S140" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T140" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U140" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V140" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W140" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X140" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y140" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z140" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA140" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB140" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC140" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD140" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE140" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF140" t="s" s="2">
-        <v>734</v>
-      </c>
-      <c r="AG140" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH140" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI140" t="s" s="2">
-        <v>738</v>
-      </c>
-      <c r="AJ140" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK140" t="s" s="2">
-        <v>739</v>
-      </c>
-      <c r="AL140" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AM140" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN140" t="s" s="2">
-        <v>740</v>
-      </c>
-      <c r="AO140" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s" s="2">
-        <v>741</v>
-      </c>
-      <c r="B141" t="s" s="2">
-        <v>741</v>
-      </c>
-      <c r="C141" s="2"/>
-      <c r="D141" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E141" s="2"/>
-      <c r="F141" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G141" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H141" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I141" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J141" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K141" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>742</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>743</v>
-      </c>
-      <c r="N141" s="2"/>
-      <c r="O141" s="2"/>
-      <c r="P141" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q141" s="2"/>
-      <c r="R141" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S141" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T141" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U141" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V141" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W141" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X141" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y141" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z141" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA141" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB141" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC141" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD141" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE141" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF141" t="s" s="2">
-        <v>741</v>
-      </c>
-      <c r="AG141" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH141" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI141" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ141" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK141" t="s" s="2">
-        <v>744</v>
-      </c>
-      <c r="AL141" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AM141" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN141" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO141" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s" s="2">
-        <v>745</v>
-      </c>
-      <c r="B142" t="s" s="2">
-        <v>745</v>
-      </c>
-      <c r="C142" s="2"/>
-      <c r="D142" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E142" s="2"/>
-      <c r="F142" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H142" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I142" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J142" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K142" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="L142" t="s" s="2">
-        <v>746</v>
-      </c>
-      <c r="M142" t="s" s="2">
-        <v>747</v>
-      </c>
-      <c r="N142" t="s" s="2">
-        <v>748</v>
-      </c>
-      <c r="O142" t="s" s="2">
-        <v>749</v>
-      </c>
-      <c r="P142" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q142" s="2"/>
-      <c r="R142" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S142" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T142" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U142" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V142" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W142" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X142" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y142" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z142" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA142" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB142" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC142" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD142" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE142" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF142" t="s" s="2">
-        <v>745</v>
-      </c>
-      <c r="AG142" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI142" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ142" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK142" t="s" s="2">
-        <v>750</v>
-      </c>
-      <c r="AL142" t="s" s="2">
-        <v>751</v>
-      </c>
-      <c r="AM142" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN142" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO142" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s" s="2">
-        <v>752</v>
-      </c>
-      <c r="B143" t="s" s="2">
-        <v>752</v>
-      </c>
-      <c r="C143" s="2"/>
-      <c r="D143" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E143" s="2"/>
-      <c r="F143" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G143" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H143" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I143" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J143" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K143" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N143" s="2"/>
-      <c r="O143" s="2"/>
-      <c r="P143" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q143" s="2"/>
-      <c r="R143" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S143" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T143" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U143" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V143" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W143" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X143" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y143" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z143" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA143" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB143" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC143" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD143" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE143" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF143" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AG143" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH143" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI143" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ143" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK143" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AL143" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM143" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN143" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO143" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s" s="2">
-        <v>753</v>
-      </c>
-      <c r="B144" t="s" s="2">
-        <v>753</v>
-      </c>
-      <c r="C144" s="2"/>
-      <c r="D144" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="E144" s="2"/>
-      <c r="F144" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H144" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I144" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J144" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K144" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L144" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M144" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O144" s="2"/>
-      <c r="P144" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q144" s="2"/>
-      <c r="R144" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S144" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T144" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U144" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V144" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W144" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X144" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y144" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z144" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA144" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB144" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC144" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD144" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE144" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF144" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AG144" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI144" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ144" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AK144" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AL144" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM144" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN144" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO144" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s" s="2">
-        <v>754</v>
-      </c>
-      <c r="B145" t="s" s="2">
-        <v>754</v>
-      </c>
-      <c r="C145" s="2"/>
-      <c r="D145" t="s" s="2">
-        <v>693</v>
-      </c>
-      <c r="E145" s="2"/>
-      <c r="F145" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H145" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I145" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J145" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K145" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L145" t="s" s="2">
-        <v>694</v>
-      </c>
-      <c r="M145" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="N145" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O145" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="P145" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q145" s="2"/>
-      <c r="R145" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S145" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T145" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U145" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V145" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W145" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X145" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y145" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z145" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA145" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB145" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC145" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD145" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE145" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF145" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="AG145" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI145" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ145" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AK145" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AL145" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM145" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN145" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO145" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s" s="2">
-        <v>755</v>
-      </c>
-      <c r="B146" t="s" s="2">
-        <v>755</v>
-      </c>
-      <c r="C146" s="2"/>
-      <c r="D146" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E146" s="2"/>
-      <c r="F146" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G146" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H146" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I146" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J146" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K146" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="L146" t="s" s="2">
-        <v>756</v>
-      </c>
-      <c r="M146" t="s" s="2">
-        <v>757</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>758</v>
-      </c>
-      <c r="O146" t="s" s="2">
-        <v>759</v>
-      </c>
-      <c r="P146" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q146" s="2"/>
-      <c r="R146" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S146" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T146" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U146" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V146" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W146" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X146" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y146" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="Z146" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AA146" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB146" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC146" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD146" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE146" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF146" t="s" s="2">
-        <v>755</v>
-      </c>
-      <c r="AG146" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH146" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI146" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ146" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK146" t="s" s="2">
-        <v>760</v>
-      </c>
-      <c r="AL146" t="s" s="2">
-        <v>761</v>
-      </c>
-      <c r="AM146" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN146" t="s" s="2">
-        <v>762</v>
-      </c>
-      <c r="AO146" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s" s="2">
-        <v>763</v>
-      </c>
-      <c r="B147" t="s" s="2">
-        <v>763</v>
-      </c>
-      <c r="C147" s="2"/>
-      <c r="D147" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E147" s="2"/>
-      <c r="F147" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G147" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H147" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I147" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J147" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K147" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="L147" t="s" s="2">
-        <v>764</v>
-      </c>
-      <c r="M147" t="s" s="2">
-        <v>765</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>766</v>
-      </c>
-      <c r="O147" t="s" s="2">
-        <v>767</v>
-      </c>
-      <c r="P147" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q147" s="2"/>
-      <c r="R147" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S147" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T147" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U147" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V147" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W147" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X147" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y147" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z147" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA147" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB147" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC147" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD147" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE147" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF147" t="s" s="2">
-        <v>763</v>
-      </c>
-      <c r="AG147" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH147" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI147" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ147" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK147" t="s" s="2">
-        <v>768</v>
-      </c>
-      <c r="AL147" t="s" s="2">
-        <v>769</v>
-      </c>
-      <c r="AM147" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN147" t="s" s="2">
-        <v>770</v>
-      </c>
-      <c r="AO147" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s" s="2">
-        <v>771</v>
-      </c>
-      <c r="B148" t="s" s="2">
-        <v>771</v>
-      </c>
-      <c r="C148" s="2"/>
-      <c r="D148" t="s" s="2">
-        <v>772</v>
-      </c>
-      <c r="E148" s="2"/>
-      <c r="F148" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H148" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I148" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J148" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K148" t="s" s="2">
-        <v>773</v>
-      </c>
-      <c r="L148" t="s" s="2">
-        <v>774</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>775</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>776</v>
-      </c>
-      <c r="O148" s="2"/>
-      <c r="P148" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q148" s="2"/>
-      <c r="R148" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S148" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T148" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U148" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V148" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W148" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X148" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y148" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z148" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA148" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB148" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC148" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD148" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE148" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF148" t="s" s="2">
-        <v>771</v>
-      </c>
-      <c r="AG148" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI148" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ148" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK148" t="s" s="2">
-        <v>777</v>
-      </c>
-      <c r="AL148" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AM148" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN148" t="s" s="2">
-        <v>778</v>
-      </c>
-      <c r="AO148" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s" s="2">
-        <v>779</v>
-      </c>
-      <c r="B149" t="s" s="2">
-        <v>779</v>
-      </c>
-      <c r="C149" s="2"/>
-      <c r="D149" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E149" s="2"/>
-      <c r="F149" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G149" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H149" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I149" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J149" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K149" t="s" s="2">
-        <v>780</v>
-      </c>
-      <c r="L149" t="s" s="2">
-        <v>781</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>782</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>783</v>
-      </c>
-      <c r="O149" t="s" s="2">
-        <v>784</v>
-      </c>
-      <c r="P149" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q149" s="2"/>
-      <c r="R149" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S149" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T149" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U149" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V149" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W149" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X149" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y149" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z149" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA149" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB149" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC149" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD149" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE149" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF149" t="s" s="2">
-        <v>779</v>
-      </c>
-      <c r="AG149" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH149" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI149" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ149" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK149" t="s" s="2">
-        <v>739</v>
-      </c>
-      <c r="AL149" t="s" s="2">
-        <v>785</v>
-      </c>
-      <c r="AM149" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN149" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO149" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s" s="2">
-        <v>786</v>
-      </c>
-      <c r="B150" t="s" s="2">
-        <v>786</v>
-      </c>
-      <c r="C150" s="2"/>
-      <c r="D150" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E150" s="2"/>
-      <c r="F150" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H150" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I150" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J150" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K150" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>787</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>788</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>789</v>
-      </c>
-      <c r="O150" t="s" s="2">
-        <v>790</v>
-      </c>
-      <c r="P150" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q150" s="2"/>
-      <c r="R150" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S150" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T150" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U150" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V150" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W150" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X150" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y150" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z150" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA150" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB150" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC150" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD150" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE150" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF150" t="s" s="2">
-        <v>786</v>
-      </c>
-      <c r="AG150" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI150" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ150" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK150" t="s" s="2">
-        <v>791</v>
-      </c>
-      <c r="AL150" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AM150" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN150" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO150" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s" s="2">
-        <v>792</v>
-      </c>
-      <c r="B151" t="s" s="2">
-        <v>792</v>
-      </c>
-      <c r="C151" s="2"/>
-      <c r="D151" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E151" s="2"/>
-      <c r="F151" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G151" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H151" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I151" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J151" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K151" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L151" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N151" s="2"/>
-      <c r="O151" s="2"/>
-      <c r="P151" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q151" s="2"/>
-      <c r="R151" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S151" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T151" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U151" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V151" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W151" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X151" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y151" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z151" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA151" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB151" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC151" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD151" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE151" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF151" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AG151" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH151" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI151" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ151" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK151" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AL151" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM151" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN151" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO151" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s" s="2">
-        <v>793</v>
-      </c>
-      <c r="B152" t="s" s="2">
-        <v>793</v>
-      </c>
-      <c r="C152" s="2"/>
-      <c r="D152" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="E152" s="2"/>
-      <c r="F152" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G152" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H152" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I152" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J152" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K152" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L152" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M152" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O152" s="2"/>
-      <c r="P152" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q152" s="2"/>
-      <c r="R152" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S152" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T152" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U152" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V152" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W152" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X152" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y152" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z152" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA152" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB152" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC152" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD152" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE152" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF152" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AG152" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH152" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI152" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ152" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AK152" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AL152" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM152" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN152" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO152" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s" s="2">
-        <v>794</v>
-      </c>
-      <c r="B153" t="s" s="2">
-        <v>794</v>
-      </c>
-      <c r="C153" s="2"/>
-      <c r="D153" t="s" s="2">
-        <v>693</v>
-      </c>
-      <c r="E153" s="2"/>
-      <c r="F153" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G153" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H153" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I153" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J153" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K153" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L153" t="s" s="2">
-        <v>694</v>
-      </c>
-      <c r="M153" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O153" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="P153" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q153" s="2"/>
-      <c r="R153" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S153" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T153" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U153" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V153" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W153" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X153" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y153" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z153" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA153" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB153" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC153" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD153" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE153" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF153" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="AG153" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH153" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI153" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ153" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AK153" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AL153" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM153" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN153" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO153" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="s" s="2">
-        <v>795</v>
-      </c>
-      <c r="B154" t="s" s="2">
-        <v>795</v>
-      </c>
-      <c r="C154" s="2"/>
-      <c r="D154" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E154" s="2"/>
-      <c r="F154" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G154" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H154" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I154" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J154" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K154" t="s" s="2">
-        <v>796</v>
-      </c>
-      <c r="L154" t="s" s="2">
-        <v>797</v>
-      </c>
-      <c r="M154" t="s" s="2">
-        <v>798</v>
-      </c>
-      <c r="N154" t="s" s="2">
-        <v>799</v>
-      </c>
-      <c r="O154" s="2"/>
-      <c r="P154" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q154" s="2"/>
-      <c r="R154" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S154" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T154" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U154" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V154" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W154" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X154" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y154" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z154" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA154" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB154" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC154" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD154" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE154" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF154" t="s" s="2">
-        <v>795</v>
-      </c>
-      <c r="AG154" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH154" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI154" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ154" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK154" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AL154" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AM154" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN154" t="s" s="2">
-        <v>800</v>
-      </c>
-      <c r="AO154" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s" s="2">
-        <v>801</v>
-      </c>
-      <c r="B155" t="s" s="2">
-        <v>801</v>
-      </c>
-      <c r="C155" s="2"/>
-      <c r="D155" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E155" s="2"/>
-      <c r="F155" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G155" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H155" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I155" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J155" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K155" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="L155" t="s" s="2">
-        <v>802</v>
-      </c>
-      <c r="M155" t="s" s="2">
-        <v>803</v>
-      </c>
-      <c r="N155" s="2"/>
-      <c r="O155" s="2"/>
-      <c r="P155" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q155" s="2"/>
-      <c r="R155" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S155" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T155" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U155" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V155" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W155" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X155" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="Y155" t="s" s="2">
-        <v>803</v>
-      </c>
-      <c r="Z155" t="s" s="2">
-        <v>804</v>
-      </c>
-      <c r="AA155" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB155" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC155" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD155" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE155" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF155" t="s" s="2">
-        <v>801</v>
-      </c>
-      <c r="AG155" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH155" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI155" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ155" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK155" t="s" s="2">
-        <v>805</v>
-      </c>
-      <c r="AL155" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AM155" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN155" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO155" t="s" s="2">
         <v>79</v>
       </c>
     </row>

--- a/Ajout-RC/ig/StructureDefinition-dmi-patient.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-patient.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-24T10:44:05+00:00</t>
+    <t>2026-02-24T16:11:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Ajout-RC/ig/StructureDefinition-dmi-patient.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T08:15:31+00:00</t>
+    <t>2026-02-25T08:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Ajout-RC/ig/StructureDefinition-dmi-patient.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T08:31:26+00:00</t>
+    <t>2026-02-25T08:48:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Ajout-RC/ig/StructureDefinition-dmi-patient.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T08:48:17+00:00</t>
+    <t>2026-02-26T17:10:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Ajout-RC/ig/StructureDefinition-dmi-patient.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-26T17:10:09+00:00</t>
+    <t>2026-02-27T10:05:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
